--- a/Actividad 2/Tablas LAB3.xlsx
+++ b/Actividad 2/Tablas LAB3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\OneDrive\Desktop\Laboratorio 3 - S&amp;S\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\OneDrive\Desktop\Laboratorio 3 - S&amp;S\Actividad 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22169A21-FB54-4208-A158-0B184634D424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7622996A-6D87-48B6-8CDA-74EC7C469611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{0B2D082E-C144-491D-AA07-B3F545B7F78F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
   <si>
     <t>Tabla 1:</t>
   </si>
@@ -95,9 +95,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>Delay [mS]</t>
-  </si>
-  <si>
     <t>0000</t>
   </si>
   <si>
@@ -188,73 +185,31 @@
     <t>24u</t>
   </si>
   <si>
-    <t>4m</t>
-  </si>
-  <si>
-    <t>800u</t>
-  </si>
-  <si>
-    <t>960m</t>
-  </si>
-  <si>
-    <t>300u</t>
-  </si>
-  <si>
-    <t>200u</t>
-  </si>
-  <si>
-    <t>944m</t>
-  </si>
-  <si>
     <t>0015</t>
   </si>
   <si>
-    <t>952m</t>
-  </si>
-  <si>
-    <t>100u</t>
-  </si>
-  <si>
     <t>0016</t>
   </si>
   <si>
-    <t>844m</t>
-  </si>
-  <si>
-    <t>50u</t>
-  </si>
-  <si>
     <t>0017</t>
   </si>
   <si>
-    <t>640m</t>
-  </si>
-  <si>
-    <t>48u</t>
-  </si>
-  <si>
     <t>0018</t>
   </si>
   <si>
     <t>0019</t>
   </si>
   <si>
-    <t>36u</t>
-  </si>
-  <si>
-    <t>412m</t>
-  </si>
-  <si>
     <t>0020</t>
   </si>
   <si>
-    <t>12u</t>
-  </si>
-  <si>
-    <t>232m</t>
-  </si>
-  <si>
     <t xml:space="preserve">A mano </t>
+  </si>
+  <si>
+    <t>Delay[S]</t>
+  </si>
+  <si>
+    <t>|H(Ϳꞷ)|</t>
   </si>
 </sst>
 </file>
@@ -262,9 +217,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,14 +252,20 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -327,7 +288,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -470,16 +431,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -498,23 +487,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -523,20 +497,109 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,6 +615,1117 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-UY"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>|H(Ϳꞷ)|</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$H$5:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$J$5:$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.99993317763311929</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9997327908779603</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99893244689588157</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99338334778307003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97429462043053094</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90764694533833767</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65419851065768164</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.39695277089001635</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.21135792262251618</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.6175479660056731E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2372-46CE-9538-EE24CB6F648F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>φ/ꞷ[s]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$H$5:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$K$5:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-3.6798360591734272E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.6793443943976533E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.6773800972464361E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.6637348429727733E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.6164449973555442E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.4469200564528498E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.7300608503459857E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.8503383567113996E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.0805285853958093E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.7253542811741501E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2372-46CE-9538-EE24CB6F648F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1459365935"/>
+        <c:axId val="1459376495"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1459365935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-UY"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1459376495"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1459376495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-UY"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1459365935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-UY"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-UY"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>162413</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114136</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>167298</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>146375</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7AB0CEF-30C3-3EC4-E332-AD824980C3B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -871,24 +2045,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6543A0-2A90-4A4E-A1BA-B6F7298B310B}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="117" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.46484375" customWidth="1"/>
+    <col min="4" max="4" width="10.19921875" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="14.53125" customWidth="1"/>
+    <col min="8" max="8" width="14.1328125" customWidth="1"/>
+    <col min="9" max="9" width="13.86328125" customWidth="1"/>
+    <col min="10" max="10" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.73046875" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" customWidth="1"/>
+    <col min="13" max="13" width="16.3984375" customWidth="1"/>
+    <col min="14" max="15" width="10.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.45">
@@ -909,453 +2085,454 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="9">
         <v>1660</v>
       </c>
-      <c r="D2" s="17">
-        <v>2.2000000000000001E-6</v>
+      <c r="D2" s="9">
+        <v>2.3E-6</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="9">
         <v>160</v>
       </c>
-      <c r="J2" s="17">
-        <v>2.2000000000000001E-6</v>
+      <c r="J2" s="9">
+        <v>2.3E-6</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="2:12" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B5" s="8">
+      <c r="B5" s="21">
         <v>5</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="19">
         <f>B5*2*PI()</f>
         <v>31.415926535897931</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="10">
         <f>1/(SQRT(1+(C5^2)*((C$2*D$2)^2)))</f>
-        <v>0.99348267448078464</v>
-      </c>
-      <c r="E5" s="13">
+        <v>0.99288317874820231</v>
+      </c>
+      <c r="E5" s="10">
+        <f>F5/C5</f>
+        <v>-3.7998465367852429E-3</v>
+      </c>
+      <c r="F5" s="18">
         <f>-ATAN2(1/(C$2*D$2),C5)</f>
-        <v>-0.11423149393916035</v>
-      </c>
-      <c r="F5" s="15">
-        <f>E5/C5</f>
-        <v>-3.6361013834378506E-3</v>
-      </c>
-      <c r="H5" s="8">
+        <v>-0.11937569964733137</v>
+      </c>
+      <c r="H5" s="21">
         <v>5</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="19">
         <f>H5*2*PI()</f>
         <v>31.415926535897931</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="10">
         <f>1/(SQRT(1+(I5^2)*((I$2*J$2)^2)))</f>
-        <v>0.99993886143415789</v>
-      </c>
-      <c r="K5" s="13">
-        <f>-ATAN2(1/(I$2*J$2),I5)</f>
-        <v>-1.1057955402307491E-2</v>
-      </c>
-      <c r="L5" s="15">
-        <f>K5/I5</f>
-        <v>-3.5198565255339307E-4</v>
+        <v>0.99993317763311929</v>
+      </c>
+      <c r="K5" s="18">
+        <f t="shared" ref="K5:K14" si="0">L5/I5</f>
+        <v>-3.6798360591734272E-4</v>
+      </c>
+      <c r="L5" s="10">
+        <f t="shared" ref="L5:L14" si="1">-ATAN2(1/(I$2*J$2),I5)</f>
+        <v>-1.1560545929914054E-2</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B6" s="8">
+      <c r="B6" s="21">
         <v>10</v>
       </c>
-      <c r="C6" s="14">
-        <f t="shared" ref="C6:C14" si="0">B6*2*PI()</f>
+      <c r="C6" s="19">
+        <f t="shared" ref="C6:C14" si="2">B6*2*PI()</f>
         <v>62.831853071795862</v>
       </c>
-      <c r="D6" s="18">
-        <f t="shared" ref="D6:D14" si="1">1/(SQRT(1+(C6^2)*((C$2*D$2)^2)))</f>
-        <v>0.97466962090949838</v>
-      </c>
-      <c r="E6" s="13">
-        <f t="shared" ref="E6:E14" si="2">-ATAN2(1/(C$2*D$2),C6)</f>
-        <v>-0.22555728932655494</v>
-      </c>
-      <c r="F6" s="15">
-        <f t="shared" ref="F6:F14" si="3">E6/C6</f>
-        <v>-3.5898557546730023E-3</v>
-      </c>
-      <c r="H6" s="8">
+      <c r="D6" s="10">
+        <f t="shared" ref="D6:D14" si="3">1/(SQRT(1+(C6^2)*((C$2*D$2)^2)))</f>
+        <v>0.97241112575913102</v>
+      </c>
+      <c r="E6" s="10">
+        <f t="shared" ref="E6:E14" si="4">F6/C6</f>
+        <v>-3.7471897280619026E-3</v>
+      </c>
+      <c r="F6" s="18">
+        <f t="shared" ref="F6:F14" si="5">-ATAN2(1/(C$2*D$2),C6)</f>
+        <v>-0.23544287442572814</v>
+      </c>
+      <c r="H6" s="21">
         <v>10</v>
       </c>
-      <c r="I6" s="14">
-        <f t="shared" ref="I6:I14" si="4">H6*2*PI()</f>
+      <c r="I6" s="19">
+        <f t="shared" ref="I6:I14" si="6">H6*2*PI()</f>
         <v>62.831853071795862</v>
       </c>
-      <c r="J6" s="18">
-        <f t="shared" ref="J6:J14" si="5">1/(SQRT(1+(I6^2)*((I$2*J$2)^2)))</f>
-        <v>0.999755512997336</v>
-      </c>
-      <c r="K6" s="13">
-        <f t="shared" ref="K6:K14" si="6">-ATAN2(1/(I$2*J$2),I6)</f>
-        <v>-2.2113207168083827E-2</v>
-      </c>
-      <c r="L6" s="15">
-        <f t="shared" ref="L6:L13" si="7">K6/I6</f>
-        <v>-3.5194262284156738E-4</v>
+      <c r="J6" s="10">
+        <f t="shared" ref="J6:J14" si="7">1/(SQRT(1+(I6^2)*((I$2*J$2)^2)))</f>
+        <v>0.9997327908779603</v>
+      </c>
+      <c r="K6" s="18">
+        <f t="shared" si="0"/>
+        <v>-3.6793443943976533E-4</v>
+      </c>
+      <c r="L6" s="10">
+        <f t="shared" si="1"/>
+        <v>-2.3118002638932909E-2</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B7" s="8">
+      <c r="B7" s="21">
         <v>20</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="19">
+        <f t="shared" si="2"/>
+        <v>125.66370614359172</v>
+      </c>
+      <c r="D7" s="10">
+        <f t="shared" si="3"/>
+        <v>0.90159900649859992</v>
+      </c>
+      <c r="E7" s="10">
+        <f t="shared" si="4"/>
+        <v>-3.559853881914812E-3</v>
+      </c>
+      <c r="F7" s="18">
+        <f t="shared" si="5"/>
+        <v>-0.44734443213106723</v>
+      </c>
+      <c r="H7" s="21">
+        <v>20</v>
+      </c>
+      <c r="I7" s="19">
+        <f t="shared" si="6"/>
+        <v>125.66370614359172</v>
+      </c>
+      <c r="J7" s="10">
+        <f t="shared" si="7"/>
+        <v>0.99893244689588157</v>
+      </c>
+      <c r="K7" s="18">
         <f t="shared" si="0"/>
-        <v>125.66370614359172</v>
-      </c>
-      <c r="D7" s="18">
+        <v>-3.6773800972464361E-4</v>
+      </c>
+      <c r="L7" s="10">
         <f t="shared" si="1"/>
-        <v>0.9088614300680784</v>
-      </c>
-      <c r="E7" s="13">
-        <f t="shared" si="2"/>
-        <v>-0.43025017622258066</v>
-      </c>
-      <c r="F7" s="15">
-        <f t="shared" si="3"/>
-        <v>-3.4238221155991383E-3</v>
-      </c>
-      <c r="H7" s="8">
-        <v>20</v>
-      </c>
-      <c r="I7" s="14">
-        <f t="shared" si="4"/>
-        <v>125.66370614359172</v>
-      </c>
-      <c r="J7" s="18">
-        <f t="shared" si="5"/>
-        <v>0.99902312651843284</v>
-      </c>
-      <c r="K7" s="13">
-        <f t="shared" si="6"/>
-        <v>-4.4204809013913555E-2</v>
-      </c>
-      <c r="L7" s="15">
-        <f t="shared" si="7"/>
-        <v>-3.5177069314987571E-4</v>
+        <v>-4.621132119186689E-2</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B8" s="8">
+      <c r="B8" s="21">
         <v>50</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="19">
+        <f t="shared" si="2"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="D8" s="10">
+        <f t="shared" si="3"/>
+        <v>0.64035442165710099</v>
+      </c>
+      <c r="E8" s="10">
+        <f t="shared" si="4"/>
+        <v>-2.7878748384108799E-3</v>
+      </c>
+      <c r="F8" s="18">
+        <f t="shared" si="5"/>
+        <v>-0.87583671114794526</v>
+      </c>
+      <c r="H8" s="21">
+        <v>50</v>
+      </c>
+      <c r="I8" s="19">
+        <f t="shared" si="6"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="J8" s="10">
+        <f t="shared" si="7"/>
+        <v>0.99338334778307003</v>
+      </c>
+      <c r="K8" s="18">
         <f t="shared" si="0"/>
-        <v>314.15926535897933</v>
-      </c>
-      <c r="D8" s="18">
+        <v>-3.6637348429727733E-4</v>
+      </c>
+      <c r="L8" s="10">
         <f t="shared" si="1"/>
-        <v>0.65705356711494778</v>
-      </c>
-      <c r="E8" s="13">
-        <f t="shared" si="2"/>
-        <v>-0.8538928015189905</v>
-      </c>
-      <c r="F8" s="15">
-        <f t="shared" si="3"/>
-        <v>-2.71802520464668E-3</v>
-      </c>
-      <c r="H8" s="8">
-        <v>50</v>
-      </c>
-      <c r="I8" s="14">
-        <f t="shared" si="4"/>
-        <v>314.15926535897933</v>
-      </c>
-      <c r="J8" s="18">
-        <f t="shared" si="5"/>
-        <v>0.99394109639309625</v>
-      </c>
-      <c r="K8" s="13">
-        <f t="shared" si="6"/>
-        <v>-0.11013656883347861</v>
-      </c>
-      <c r="L8" s="15">
-        <f t="shared" si="7"/>
-        <v>-3.5057558690057805E-4</v>
+        <v>-0.11509962467384219</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B9" s="8">
+      <c r="B9" s="21">
         <v>100</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="19">
+        <f t="shared" si="2"/>
+        <v>628.31853071795865</v>
+      </c>
+      <c r="D9" s="10">
+        <f t="shared" si="3"/>
+        <v>0.38476288956178101</v>
+      </c>
+      <c r="E9" s="10">
+        <f t="shared" si="4"/>
+        <v>-1.8714160847769813E-3</v>
+      </c>
+      <c r="F9" s="18">
+        <f t="shared" si="5"/>
+        <v>-1.1758454047490277</v>
+      </c>
+      <c r="H9" s="21">
+        <v>100</v>
+      </c>
+      <c r="I9" s="19">
+        <f t="shared" si="6"/>
+        <v>628.31853071795865</v>
+      </c>
+      <c r="J9" s="10">
+        <f t="shared" si="7"/>
+        <v>0.97429462043053094</v>
+      </c>
+      <c r="K9" s="18">
         <f t="shared" si="0"/>
-        <v>628.31853071795865</v>
-      </c>
-      <c r="D9" s="18">
+        <v>-3.6164449973555442E-4</v>
+      </c>
+      <c r="L9" s="10">
         <f t="shared" si="1"/>
-        <v>0.39951201082486282</v>
-      </c>
-      <c r="E9" s="13">
-        <f t="shared" si="2"/>
-        <v>-1.1598118587451396</v>
-      </c>
-      <c r="F9" s="15">
-        <f t="shared" si="3"/>
-        <v>-1.8458979037588804E-3</v>
-      </c>
-      <c r="H9" s="8">
-        <v>100</v>
-      </c>
-      <c r="I9" s="14">
-        <f t="shared" si="4"/>
-        <v>628.31853071795865</v>
-      </c>
-      <c r="J9" s="18">
-        <f t="shared" si="5"/>
-        <v>0.97640452151720181</v>
-      </c>
-      <c r="K9" s="13">
-        <f t="shared" si="6"/>
-        <v>-0.2176642272061769</v>
-      </c>
-      <c r="L9" s="15">
-        <f t="shared" si="7"/>
-        <v>-3.4642337694140458E-4</v>
+        <v>-0.22722794071607474</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B10" s="8">
+      <c r="B10" s="21">
         <v>200</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="19">
+        <f t="shared" si="2"/>
+        <v>1256.6370614359173</v>
+      </c>
+      <c r="D10" s="10">
+        <f t="shared" si="3"/>
+        <v>0.20404224062515786</v>
+      </c>
+      <c r="E10" s="10">
+        <f t="shared" si="4"/>
+        <v>-1.0864800211619035E-3</v>
+      </c>
+      <c r="F10" s="18">
+        <f t="shared" si="5"/>
+        <v>-1.3653110611017276</v>
+      </c>
+      <c r="H10" s="21">
+        <v>200</v>
+      </c>
+      <c r="I10" s="19">
+        <f t="shared" si="6"/>
+        <v>1256.6370614359173</v>
+      </c>
+      <c r="J10" s="10">
+        <f t="shared" si="7"/>
+        <v>0.90764694533833767</v>
+      </c>
+      <c r="K10" s="18">
         <f t="shared" si="0"/>
-        <v>1256.6370614359173</v>
-      </c>
-      <c r="D10" s="18">
+        <v>-3.4469200564528498E-4</v>
+      </c>
+      <c r="L10" s="10">
         <f t="shared" si="1"/>
-        <v>0.21290522289704045</v>
-      </c>
-      <c r="E10" s="13">
-        <f t="shared" si="2"/>
-        <v>-1.3562489309410113</v>
-      </c>
-      <c r="F10" s="15">
-        <f t="shared" si="3"/>
-        <v>-1.0792686071118027E-3</v>
-      </c>
-      <c r="H10" s="8">
-        <v>200</v>
-      </c>
-      <c r="I10" s="14">
-        <f t="shared" si="4"/>
-        <v>1256.6370614359173</v>
-      </c>
-      <c r="J10" s="18">
-        <f t="shared" si="5"/>
-        <v>0.91452567747902469</v>
-      </c>
-      <c r="K10" s="13">
-        <f t="shared" si="6"/>
-        <v>-0.41646249821715675</v>
-      </c>
-      <c r="L10" s="15">
-        <f t="shared" si="7"/>
-        <v>-3.3141032601830071E-4</v>
+        <v>-0.43315274907454354</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B11" s="8">
+      <c r="B11" s="21">
         <v>500</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="19">
+        <f t="shared" si="2"/>
+        <v>3141.5926535897929</v>
+      </c>
+      <c r="D11" s="10">
+        <f t="shared" si="3"/>
+        <v>8.308260395881574E-2</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" si="4"/>
+        <v>-4.7352346599218386E-4</v>
+      </c>
+      <c r="F11" s="18">
+        <f t="shared" si="5"/>
+        <v>-1.487617842063421</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="21">
+        <v>500</v>
+      </c>
+      <c r="I11" s="19">
+        <f t="shared" si="6"/>
+        <v>3141.5926535897929</v>
+      </c>
+      <c r="J11" s="10">
+        <f t="shared" si="7"/>
+        <v>0.65419851065768164</v>
+      </c>
+      <c r="K11" s="18">
         <f t="shared" si="0"/>
-        <v>3141.5926535897929</v>
-      </c>
-      <c r="D11" s="18">
+        <v>-2.7300608503459857E-4</v>
+      </c>
+      <c r="L11" s="48">
         <f t="shared" si="1"/>
-        <v>8.6831227078373305E-2</v>
-      </c>
-      <c r="E11" s="13">
-        <f t="shared" si="2"/>
-        <v>-1.4838556148255002</v>
-      </c>
-      <c r="F11" s="15">
-        <f t="shared" si="3"/>
-        <v>-4.7232591186828374E-4</v>
-      </c>
-      <c r="H11" s="8">
-        <v>500</v>
-      </c>
-      <c r="I11" s="14">
-        <f t="shared" si="4"/>
-        <v>3141.5926535897929</v>
-      </c>
-      <c r="J11" s="18">
-        <f t="shared" si="5"/>
-        <v>0.67072061130538874</v>
-      </c>
-      <c r="K11" s="13">
-        <f t="shared" si="6"/>
-        <v>-0.83561641173899748</v>
-      </c>
-      <c r="L11" s="15">
-        <f t="shared" si="7"/>
-        <v>-2.6598496491394788E-4</v>
+        <v>-0.85767391113000524</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B12" s="8">
+      <c r="B12" s="21">
         <v>1000</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="19">
+        <f t="shared" si="2"/>
+        <v>6283.1853071795858</v>
+      </c>
+      <c r="D12" s="10">
+        <f t="shared" si="3"/>
+        <v>4.1649251782663335E-2</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" si="4"/>
+        <v>-2.4336939778610314E-4</v>
+      </c>
+      <c r="F12" s="18">
+        <f t="shared" si="5"/>
+        <v>-1.5291350243867872</v>
+      </c>
+      <c r="H12" s="21">
+        <v>1000</v>
+      </c>
+      <c r="I12" s="19">
+        <f t="shared" si="6"/>
+        <v>6283.1853071795858</v>
+      </c>
+      <c r="J12" s="10">
+        <f t="shared" si="7"/>
+        <v>0.39695277089001635</v>
+      </c>
+      <c r="K12" s="18">
         <f t="shared" si="0"/>
-        <v>6283.1853071795858</v>
-      </c>
-      <c r="D12" s="18">
+        <v>-1.8503383567113996E-4</v>
+      </c>
+      <c r="L12" s="10">
         <f t="shared" si="1"/>
-        <v>4.3538888748081025E-2</v>
-      </c>
-      <c r="E12" s="13">
-        <f t="shared" si="2"/>
-        <v>-1.5272436706604877</v>
-      </c>
-      <c r="F12" s="15">
-        <f t="shared" si="3"/>
-        <v>-2.4306837949142728E-4</v>
-      </c>
-      <c r="H12" s="8">
-        <v>1000</v>
-      </c>
-      <c r="I12" s="14">
-        <f t="shared" si="4"/>
-        <v>6283.1853071795858</v>
-      </c>
-      <c r="J12" s="18">
-        <f t="shared" si="5"/>
-        <v>0.41198918075870139</v>
-      </c>
-      <c r="K12" s="13">
-        <f t="shared" si="6"/>
-        <v>-1.1461602780430042</v>
-      </c>
-      <c r="L12" s="15">
-        <f t="shared" si="7"/>
-        <v>-1.8241707382612529E-4</v>
+        <v>-1.1626018776199885</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B13" s="8">
+      <c r="B13" s="21">
         <v>2000</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="19">
+        <f t="shared" si="2"/>
+        <v>12566.370614359172</v>
+      </c>
+      <c r="D13" s="10">
+        <f t="shared" si="3"/>
+        <v>2.0838185491937784E-2</v>
+      </c>
+      <c r="E13" s="10">
+        <f t="shared" si="4"/>
+        <v>-1.2334162985317226E-4</v>
+      </c>
+      <c r="F13" s="18">
+        <f t="shared" si="5"/>
+        <v>-1.5499566329140697</v>
+      </c>
+      <c r="H13" s="21">
+        <v>2000</v>
+      </c>
+      <c r="I13" s="19">
+        <f t="shared" si="6"/>
+        <v>12566.370614359172</v>
+      </c>
+      <c r="J13" s="10">
+        <f t="shared" si="7"/>
+        <v>0.21135792262251618</v>
+      </c>
+      <c r="K13" s="18">
         <f t="shared" si="0"/>
-        <v>12566.370614359172</v>
-      </c>
-      <c r="D13" s="18">
+        <v>-1.0805285853958093E-4</v>
+      </c>
+      <c r="L13" s="10">
         <f t="shared" si="1"/>
-        <v>2.1784935988521097E-2</v>
-      </c>
-      <c r="E13" s="13">
-        <f t="shared" si="2"/>
-        <v>-1.54900966730998</v>
-      </c>
-      <c r="F13" s="15">
-        <f t="shared" si="3"/>
-        <v>-1.2326627272475781E-4</v>
-      </c>
-      <c r="H13" s="8">
-        <v>2000</v>
-      </c>
-      <c r="I13" s="14">
-        <f t="shared" si="4"/>
-        <v>12566.370614359172</v>
-      </c>
-      <c r="J13" s="18">
-        <f t="shared" si="5"/>
-        <v>0.22050764671758041</v>
-      </c>
-      <c r="K13" s="13">
-        <f t="shared" si="6"/>
-        <v>-1.3484614292349961</v>
-      </c>
-      <c r="L13" s="15">
-        <f t="shared" si="7"/>
-        <v>-1.0730715101575584E-4</v>
+        <v>-1.3578322663492983</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="10">
+      <c r="B14" s="22">
         <v>5000</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="23">
+        <f t="shared" si="2"/>
+        <v>31415.926535897932</v>
+      </c>
+      <c r="D14" s="24">
+        <f t="shared" si="3"/>
+        <v>8.3367947716427911E-3</v>
+      </c>
+      <c r="E14" s="10">
+        <f t="shared" si="4"/>
+        <v>-4.9734628506468111E-5</v>
+      </c>
+      <c r="F14" s="18">
+        <f t="shared" si="5"/>
+        <v>-1.5624594354493773</v>
+      </c>
+      <c r="H14" s="22">
+        <v>5000</v>
+      </c>
+      <c r="I14" s="23">
+        <f t="shared" si="6"/>
+        <v>31415.926535897932</v>
+      </c>
+      <c r="J14" s="24">
+        <f t="shared" si="7"/>
+        <v>8.6175479660056731E-2</v>
+      </c>
+      <c r="K14" s="25">
         <f t="shared" si="0"/>
-        <v>31415.926535897932</v>
-      </c>
-      <c r="D14" s="18">
+        <v>-4.7253542811741501E-5</v>
+      </c>
+      <c r="L14" s="24">
         <f t="shared" si="1"/>
-        <v>8.7157118282187029E-3</v>
-      </c>
-      <c r="E14" s="13">
-        <f t="shared" si="2"/>
-        <v>-1.562080504616717</v>
-      </c>
-      <c r="F14" s="15">
-        <f t="shared" si="3"/>
-        <v>-4.9722566763446548E-5</v>
-      </c>
-      <c r="H14" s="10">
-        <v>5000</v>
-      </c>
-      <c r="I14" s="16">
-        <f t="shared" si="4"/>
-        <v>31415.926535897932</v>
-      </c>
-      <c r="J14" s="18">
-        <f t="shared" si="5"/>
-        <v>9.0061460647254205E-2</v>
-      </c>
-      <c r="K14" s="13">
-        <f t="shared" si="6"/>
-        <v>-1.4806126705228733</v>
-      </c>
-      <c r="L14" s="15">
-        <f>K14/I14</f>
-        <v>-4.7129365063641415E-5</v>
+        <v>-1.4845138295345788</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.45">
@@ -1363,385 +2540,806 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="H16" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="23" t="s">
+      <c r="I16" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="20"/>
+      <c r="H18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="7">
+        <v>5</v>
+      </c>
+      <c r="C19" s="11">
+        <v>1</v>
+      </c>
+      <c r="D19" s="26">
+        <v>1</v>
+      </c>
+      <c r="E19" s="28">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H19" s="7">
+        <v>5</v>
+      </c>
+      <c r="I19" s="11">
+        <v>1</v>
+      </c>
+      <c r="J19" s="11">
+        <v>1.04</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N19" s="14"/>
+    </row>
+    <row r="20" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="7">
+        <v>10</v>
+      </c>
+      <c r="C20" s="11">
+        <v>1</v>
+      </c>
+      <c r="D20" s="26">
+        <v>1</v>
+      </c>
+      <c r="E20" s="28">
+        <v>1E-3</v>
+      </c>
+      <c r="H20" s="7">
+        <v>10</v>
+      </c>
+      <c r="I20" s="11">
+        <v>1</v>
+      </c>
+      <c r="J20" s="11">
+        <v>1.01</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="7">
+        <v>20</v>
+      </c>
+      <c r="C21" s="11">
+        <v>1</v>
+      </c>
+      <c r="D21" s="26">
+        <v>1</v>
+      </c>
+      <c r="E21" s="28">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="H21" s="7">
+        <v>20</v>
+      </c>
+      <c r="I21" s="11">
+        <v>1</v>
+      </c>
+      <c r="J21" s="11">
+        <v>1.04</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="7">
+        <v>50</v>
+      </c>
+      <c r="C22" s="11">
+        <v>1</v>
+      </c>
+      <c r="D22" s="26">
+        <v>0.96</v>
+      </c>
+      <c r="E22" s="28">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H22" s="7">
+        <v>50</v>
+      </c>
+      <c r="I22" s="11">
+        <v>1</v>
+      </c>
+      <c r="J22" s="11">
+        <v>1</v>
+      </c>
+      <c r="K22" s="11" t="s">
         <v>28</v>
       </c>
+      <c r="L22" s="13" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="17" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="18" spans="1:14" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="B18" s="3" t="s">
+    <row r="23" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="7">
+        <v>100</v>
+      </c>
+      <c r="C23" s="11">
         <v>1</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="D23" s="26">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="E23" s="28">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H23" s="7">
+        <v>100</v>
+      </c>
+      <c r="I23" s="11">
+        <v>1</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="N23" s="14"/>
+    </row>
+    <row r="24" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="7">
+        <v>200</v>
+      </c>
+      <c r="C24" s="11">
+        <v>1</v>
+      </c>
+      <c r="D24" s="26">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="E24" s="28">
+        <v>1E-4</v>
+      </c>
+      <c r="H24" s="7">
+        <v>200</v>
+      </c>
+      <c r="I24" s="11">
+        <v>1</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="7">
+        <v>500</v>
+      </c>
+      <c r="C25" s="11">
+        <v>1</v>
+      </c>
+      <c r="D25" s="26">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="E25" s="28">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="H25" s="7">
+        <v>500</v>
+      </c>
+      <c r="I25" s="11">
+        <v>1</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C26" s="11">
+        <v>1</v>
+      </c>
+      <c r="D26" s="26">
+        <v>0.64</v>
+      </c>
+      <c r="E26" s="28">
+        <v>4.8000000000000001E-5</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I26" s="16">
+        <v>1</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="7">
+        <v>2000</v>
+      </c>
+      <c r="C27" s="11">
+        <v>1</v>
+      </c>
+      <c r="D27" s="26">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="E27" s="28">
+        <v>3.6000000000000001E-5</v>
+      </c>
+      <c r="H27" s="7">
+        <v>2000</v>
+      </c>
+      <c r="I27" s="16">
+        <v>1</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="12"/>
+    </row>
+    <row r="28" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="8">
+        <v>5000</v>
+      </c>
+      <c r="C28" s="15">
+        <v>1</v>
+      </c>
+      <c r="D28" s="29">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="E28" s="30">
+        <v>1.2E-5</v>
+      </c>
+      <c r="H28" s="8">
+        <v>5000</v>
+      </c>
+      <c r="I28" s="16">
+        <v>1</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B31" s="14"/>
+    </row>
+    <row r="32" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="H18" s="3" t="s">
+      <c r="H32" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J18" s="5" t="s">
+      <c r="K32" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="L32" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="N32" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="O32" s="43" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A19" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="8">
+    <row r="33" spans="3:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C33" s="32">
         <v>5</v>
       </c>
-      <c r="C19" s="19">
+      <c r="D33" s="11">
+        <v>0.99348267448078464</v>
+      </c>
+      <c r="E33" s="33">
+        <v>-3.6361013834378506E-3</v>
+      </c>
+      <c r="F33" s="32">
+        <v>5</v>
+      </c>
+      <c r="G33" s="36">
         <v>1</v>
       </c>
-      <c r="D19" s="2">
+      <c r="H33" s="38">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="41">
+        <v>5</v>
+      </c>
+      <c r="K33" s="41">
+        <v>0.99993886143415789</v>
+      </c>
+      <c r="L33" s="41">
+        <v>-3.5198565255339307E-4</v>
+      </c>
+      <c r="M33" s="41">
+        <v>5</v>
+      </c>
+      <c r="N33" s="44">
+        <v>1.04</v>
+      </c>
+      <c r="O33" s="44">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C34" s="32">
+        <v>10</v>
+      </c>
+      <c r="D34" s="11">
+        <v>0.97466962090949838</v>
+      </c>
+      <c r="E34" s="33">
+        <v>-3.5898557546730023E-3</v>
+      </c>
+      <c r="F34" s="32">
+        <v>10</v>
+      </c>
+      <c r="G34" s="36">
         <v>1</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="H19" s="8">
-        <v>5</v>
-      </c>
-      <c r="I19" s="19">
+      <c r="H34" s="38">
+        <v>1E-3</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="41">
+        <v>10</v>
+      </c>
+      <c r="K34" s="41">
+        <v>0.999755512997336</v>
+      </c>
+      <c r="L34" s="41">
+        <v>-3.5194262284156738E-4</v>
+      </c>
+      <c r="M34" s="41">
+        <v>10</v>
+      </c>
+      <c r="N34" s="44">
+        <v>1.01</v>
+      </c>
+      <c r="O34" s="44">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C35" s="32">
+        <v>20</v>
+      </c>
+      <c r="D35" s="11">
+        <v>0.9088614300680784</v>
+      </c>
+      <c r="E35" s="33">
+        <v>-3.4238221155991383E-3</v>
+      </c>
+      <c r="F35" s="32">
+        <v>20</v>
+      </c>
+      <c r="G35" s="36">
         <v>1</v>
       </c>
-      <c r="J19" s="19">
+      <c r="H35" s="38">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="41">
+        <v>20</v>
+      </c>
+      <c r="K35" s="41">
+        <v>0.99902312651843284</v>
+      </c>
+      <c r="L35" s="41">
+        <v>-3.5177069314987571E-4</v>
+      </c>
+      <c r="M35" s="41">
+        <v>20</v>
+      </c>
+      <c r="N35" s="44">
         <v>1.04</v>
       </c>
-      <c r="K19" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="22" t="s">
-        <v>13</v>
+      <c r="O35" s="44">
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A20" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="8">
-        <v>10</v>
-      </c>
-      <c r="C20" s="19">
+    <row r="36" spans="3:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C36" s="32">
+        <v>50</v>
+      </c>
+      <c r="D36" s="11">
+        <v>0.65705356711494778</v>
+      </c>
+      <c r="E36" s="33">
+        <v>-2.71802520464668E-3</v>
+      </c>
+      <c r="F36" s="32">
+        <v>50</v>
+      </c>
+      <c r="G36" s="36">
+        <v>0.96</v>
+      </c>
+      <c r="H36" s="38">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="41">
+        <v>50</v>
+      </c>
+      <c r="K36" s="41">
+        <v>0.99394109639309625</v>
+      </c>
+      <c r="L36" s="41">
+        <v>-3.5057558690057805E-4</v>
+      </c>
+      <c r="M36" s="41">
+        <v>50</v>
+      </c>
+      <c r="N36" s="44">
         <v>1</v>
       </c>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="H20" s="8">
-        <v>10</v>
-      </c>
-      <c r="I20" s="19">
-        <v>1</v>
-      </c>
-      <c r="J20" s="19">
-        <v>1.01</v>
-      </c>
-      <c r="K20" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="22" t="s">
-        <v>14</v>
+      <c r="O36" s="44">
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A21" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="8">
-        <v>20</v>
-      </c>
-      <c r="C21" s="19">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="9"/>
-      <c r="H21" s="8">
-        <v>20</v>
-      </c>
-      <c r="I21" s="19">
-        <v>1</v>
-      </c>
-      <c r="J21" s="19">
-        <v>1.04</v>
-      </c>
-      <c r="K21" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="L21" s="22" t="s">
-        <v>15</v>
+    <row r="37" spans="3:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C37" s="32">
+        <v>100</v>
+      </c>
+      <c r="D37" s="11">
+        <v>0.39951201082486282</v>
+      </c>
+      <c r="E37" s="33">
+        <v>-1.8458979037588804E-3</v>
+      </c>
+      <c r="F37" s="32">
+        <v>100</v>
+      </c>
+      <c r="G37" s="36">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="H37" s="38">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="41">
+        <v>100</v>
+      </c>
+      <c r="K37" s="41">
+        <v>0.97640452151720181</v>
+      </c>
+      <c r="L37" s="41">
+        <v>-3.4642337694140458E-4</v>
+      </c>
+      <c r="M37" s="41">
+        <v>100</v>
+      </c>
+      <c r="N37" s="44">
+        <v>0.98</v>
+      </c>
+      <c r="O37" s="44">
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A22" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="8">
-        <v>50</v>
-      </c>
-      <c r="C22" s="19">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="9"/>
-      <c r="H22" s="8">
-        <v>50</v>
-      </c>
-      <c r="I22" s="19">
-        <v>1</v>
-      </c>
-      <c r="J22" s="19">
-        <v>1</v>
-      </c>
-      <c r="K22" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="L22" s="22" t="s">
-        <v>30</v>
+    <row r="38" spans="3:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C38" s="32">
+        <v>200</v>
+      </c>
+      <c r="D38" s="11">
+        <v>0.21290522289704045</v>
+      </c>
+      <c r="E38" s="33">
+        <v>-1.0792686071118027E-3</v>
+      </c>
+      <c r="F38" s="32">
+        <v>200</v>
+      </c>
+      <c r="G38" s="36">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="H38" s="38">
+        <v>1E-4</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="41">
+        <v>200</v>
+      </c>
+      <c r="K38" s="41">
+        <v>0.91452567747902469</v>
+      </c>
+      <c r="L38" s="41">
+        <v>-3.3141032601830071E-4</v>
+      </c>
+      <c r="M38" s="41">
+        <v>200</v>
+      </c>
+      <c r="N38" s="44">
+        <v>0.84</v>
+      </c>
+      <c r="O38" s="44">
+        <v>3.6000000000000001E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A23" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="8">
-        <v>100</v>
-      </c>
-      <c r="C23" s="19">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="9"/>
-      <c r="H23" s="8">
-        <v>100</v>
-      </c>
-      <c r="I23" s="19">
-        <v>1</v>
-      </c>
-      <c r="J23" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="K23" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="L23" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="M23" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="N23" s="23"/>
+    <row r="39" spans="3:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C39" s="32">
+        <v>500</v>
+      </c>
+      <c r="D39" s="11">
+        <v>8.6831227078373305E-2</v>
+      </c>
+      <c r="E39" s="33">
+        <v>-4.7232591186828374E-4</v>
+      </c>
+      <c r="F39" s="32">
+        <v>500</v>
+      </c>
+      <c r="G39" s="36">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="H39" s="38">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="41">
+        <v>500</v>
+      </c>
+      <c r="K39" s="41">
+        <v>0.67072061130538874</v>
+      </c>
+      <c r="L39" s="41">
+        <v>-2.6598496491394788E-4</v>
+      </c>
+      <c r="M39" s="41">
+        <v>500</v>
+      </c>
+      <c r="N39" s="44">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="O39" s="44">
+        <v>2.4000000000000001E-5</v>
+      </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A24" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="8">
-        <v>200</v>
-      </c>
-      <c r="C24" s="19">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="9"/>
-      <c r="H24" s="8">
-        <v>200</v>
-      </c>
-      <c r="I24" s="19">
-        <v>1</v>
-      </c>
-      <c r="J24" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K24" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="L24" s="22" t="s">
-        <v>17</v>
+    <row r="40" spans="3:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C40" s="32">
+        <v>1000</v>
+      </c>
+      <c r="D40" s="11">
+        <v>4.3538888748081025E-2</v>
+      </c>
+      <c r="E40" s="33">
+        <v>-2.4306837949142728E-4</v>
+      </c>
+      <c r="F40" s="32">
+        <v>1000</v>
+      </c>
+      <c r="G40" s="36">
+        <v>0.64</v>
+      </c>
+      <c r="H40" s="38">
+        <v>4.8000000000000001E-5</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="41">
+        <v>1000</v>
+      </c>
+      <c r="K40" s="41">
+        <v>0.41198918075870139</v>
+      </c>
+      <c r="L40" s="41">
+        <v>-1.8241707382612529E-4</v>
+      </c>
+      <c r="M40" s="41">
+        <v>1000</v>
+      </c>
+      <c r="N40" s="44">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="O40" s="45">
+        <v>1.8E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A25" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="8">
-        <v>500</v>
-      </c>
-      <c r="C25" s="19">
-        <v>1</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="9"/>
-      <c r="H25" s="8">
-        <v>500</v>
-      </c>
-      <c r="I25" s="19">
-        <v>1</v>
-      </c>
-      <c r="J25" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="K25" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="L25" s="22" t="s">
-        <v>18</v>
+    <row r="41" spans="3:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C41" s="32">
+        <v>2000</v>
+      </c>
+      <c r="D41" s="11">
+        <v>2.1784935988521097E-2</v>
+      </c>
+      <c r="E41" s="33">
+        <v>-1.2326627272475781E-4</v>
+      </c>
+      <c r="F41" s="32">
+        <v>2000</v>
+      </c>
+      <c r="G41" s="36">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="H41" s="38">
+        <v>3.6000000000000001E-5</v>
+      </c>
+      <c r="I41" s="1"/>
+      <c r="J41" s="41">
+        <v>2000</v>
+      </c>
+      <c r="K41" s="41">
+        <v>0.22050764671758041</v>
+      </c>
+      <c r="L41" s="41">
+        <v>-1.0730715101575584E-4</v>
+      </c>
+      <c r="M41" s="41">
+        <v>2000</v>
+      </c>
+      <c r="N41" s="44">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="O41" s="44">
+        <v>8.3999999999999995E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A26" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="8">
-        <v>1000</v>
-      </c>
-      <c r="C26" s="19">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26" s="9"/>
-      <c r="H26" s="8">
-        <v>1000</v>
-      </c>
-      <c r="I26" s="25">
-        <v>1</v>
-      </c>
-      <c r="J26" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K26" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="L26" s="22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A27" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="8">
-        <v>2000</v>
-      </c>
-      <c r="C27" s="19">
-        <v>1</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="9"/>
-      <c r="H27" s="8">
-        <v>2000</v>
-      </c>
-      <c r="I27" s="25">
-        <v>1</v>
-      </c>
-      <c r="J27" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="K27" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M27" s="21"/>
-    </row>
-    <row r="28" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="10">
+    <row r="42" spans="3:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C42" s="34">
         <v>5000</v>
       </c>
-      <c r="C28" s="19">
-        <v>1</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" s="12"/>
-      <c r="H28" s="10">
+      <c r="D42" s="15">
+        <v>8.7157118282187029E-3</v>
+      </c>
+      <c r="E42" s="35">
+        <v>-4.97225667634465E-5</v>
+      </c>
+      <c r="F42" s="34">
         <v>5000</v>
       </c>
-      <c r="I28" s="25">
-        <v>1</v>
-      </c>
-      <c r="J28" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="K28" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="L28" s="22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B31" s="23"/>
+      <c r="G42" s="39">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="H42" s="40">
+        <v>1.2E-5</v>
+      </c>
+      <c r="I42" s="1"/>
+      <c r="J42" s="41">
+        <v>5000</v>
+      </c>
+      <c r="K42" s="41">
+        <v>9.0061460647254205E-2</v>
+      </c>
+      <c r="L42" s="41">
+        <v>-4.7129365063641415E-5</v>
+      </c>
+      <c r="M42" s="41">
+        <v>5000</v>
+      </c>
+      <c r="N42" s="46">
+        <v>0.104</v>
+      </c>
+      <c r="O42" s="46">
+        <v>2.4000000000000001E-5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1979,20 +3577,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="c789009b-da0c-4a5a-8f0b-f9a6c5ce0b99" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="c789009b-da0c-4a5a-8f0b-f9a6c5ce0b99" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2015,6 +3613,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50EBA563-90FD-47F4-8D87-242D46371EDE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C94F5351-61EF-4250-858A-26D9789B16E2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -2029,12 +3635,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50EBA563-90FD-47F4-8D87-242D46371EDE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>